--- a/data/origin/roads.xlsx
+++ b/data/origin/roads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paveldibrovenko/Desktop/xacaton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karimvafin/Documents/Python/NestroHackathon/data/origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E198CA50-6710-7F45-A204-276FBB4816E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E9412-BAFC-794F-9F9F-FBA2C68A9E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="449">
   <si>
     <t>Номер</t>
   </si>
@@ -1364,13 +1364,16 @@
   </si>
   <si>
     <t>[(44.92706, 17.90655), (44.9275, 17.90749), (44.92779, 17.90826), (44.92799, 17.90898), (44.92801, 17.90903), (44.92811, 17.90949), (44.9286, 17.91032), (44.92872, 17.9107)]</t>
+  </si>
+  <si>
+    <t>len</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,6 +1386,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1420,11 +1431,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1727,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1741,7 +1753,7 @@
     <col min="5" max="5" width="188.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1757,8 +1769,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>326</v>
       </c>
@@ -1774,8 +1789,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>3.552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>327</v>
       </c>
@@ -1791,8 +1809,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>328</v>
       </c>
@@ -1808,8 +1829,11 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>5.8659999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1825,8 +1849,11 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>11.430999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1842,8 +1869,11 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>12.547000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1859,8 +1889,11 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>9.2219999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1876,8 +1909,11 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>16.338999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1893,8 +1929,11 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>13.093999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1910,8 +1949,11 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>4.1280000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1927,8 +1969,11 @@
       <c r="E11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>7.5869999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1944,8 +1989,11 @@
       <c r="E12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>4.0869999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>44</v>
       </c>
@@ -1961,8 +2009,11 @@
       <c r="E13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>4.0869999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1978,8 +2029,11 @@
       <c r="E14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>12.269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1995,8 +2049,11 @@
       <c r="E15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>18.134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>18</v>
       </c>
@@ -2012,8 +2069,11 @@
       <c r="E16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>41</v>
       </c>
@@ -2029,8 +2089,11 @@
       <c r="E17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>18.016999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>64</v>
       </c>
@@ -2046,8 +2109,11 @@
       <c r="E18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>14.917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>67</v>
       </c>
@@ -2063,8 +2129,11 @@
       <c r="E19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>17.628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>90</v>
       </c>
@@ -2080,8 +2149,11 @@
       <c r="E20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>9.7959999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>91</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="E21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>6.3479999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>92</v>
       </c>
@@ -2114,8 +2189,11 @@
       <c r="E22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>14.834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>93</v>
       </c>
@@ -2131,8 +2209,11 @@
       <c r="E23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>4.9160000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>98</v>
       </c>
@@ -2148,8 +2229,11 @@
       <c r="E24" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>13.686999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>99</v>
       </c>
@@ -2165,8 +2249,11 @@
       <c r="E25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>100</v>
       </c>
@@ -2182,8 +2269,11 @@
       <c r="E26" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>17.914000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>104</v>
       </c>
@@ -2199,8 +2289,11 @@
       <c r="E27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>15.493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>133</v>
       </c>
@@ -2216,8 +2309,11 @@
       <c r="E28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>69.228999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>136</v>
       </c>
@@ -2233,8 +2329,11 @@
       <c r="E29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>43.822000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>137</v>
       </c>
@@ -2250,8 +2349,11 @@
       <c r="E30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>373</v>
       </c>
@@ -2267,8 +2369,11 @@
       <c r="E31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>14.462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>377</v>
       </c>
@@ -2284,8 +2389,11 @@
       <c r="E32" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>194.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>143</v>
       </c>
@@ -2301,8 +2409,11 @@
       <c r="E33" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>7.3109999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>144</v>
       </c>
@@ -2318,8 +2429,11 @@
       <c r="E34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>22.251000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>153</v>
       </c>
@@ -2335,8 +2449,11 @@
       <c r="E35" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>154</v>
       </c>
@@ -2352,8 +2469,11 @@
       <c r="E36" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>23.991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>156</v>
       </c>
@@ -2369,8 +2489,11 @@
       <c r="E37" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>7.8280000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>385</v>
       </c>
@@ -2386,8 +2509,11 @@
       <c r="E38" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>5.4329999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>386</v>
       </c>
@@ -2403,8 +2529,11 @@
       <c r="E39" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>387</v>
       </c>
@@ -2420,8 +2549,11 @@
       <c r="E40" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>21.803999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>388</v>
       </c>
@@ -2437,8 +2569,11 @@
       <c r="E41" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>25.355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>389</v>
       </c>
@@ -2454,8 +2589,11 @@
       <c r="E42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>2.5529999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>390</v>
       </c>
@@ -2471,8 +2609,11 @@
       <c r="E43" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>3.8650000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>391</v>
       </c>
@@ -2488,8 +2629,11 @@
       <c r="E44" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>22.754000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>405</v>
       </c>
@@ -2505,8 +2649,11 @@
       <c r="E45" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>15.372999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>416</v>
       </c>
@@ -2522,8 +2669,11 @@
       <c r="E46" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>23.934999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>418</v>
       </c>
@@ -2539,8 +2689,11 @@
       <c r="E47" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>21.977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>419</v>
       </c>
@@ -2556,8 +2709,11 @@
       <c r="E48" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>6.6390000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>158</v>
       </c>
@@ -2573,8 +2729,11 @@
       <c r="E49" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>34.238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>168</v>
       </c>
@@ -2590,8 +2749,11 @@
       <c r="E50" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>180</v>
       </c>
@@ -2607,8 +2769,11 @@
       <c r="E51" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>12.055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>181</v>
       </c>
@@ -2624,8 +2789,11 @@
       <c r="E52" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>23.515000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>183</v>
       </c>
@@ -2641,8 +2809,11 @@
       <c r="E53" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>206</v>
       </c>
@@ -2658,8 +2829,11 @@
       <c r="E54" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>184</v>
       </c>
@@ -2675,8 +2849,11 @@
       <c r="E55" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>8.8290000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>207</v>
       </c>
@@ -2692,8 +2869,11 @@
       <c r="E56" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>8.8290000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>187</v>
       </c>
@@ -2709,8 +2889,11 @@
       <c r="E57" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>5.7590000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>438</v>
       </c>
@@ -2726,8 +2909,11 @@
       <c r="E58" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>183.18799999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>440</v>
       </c>
@@ -2743,8 +2929,11 @@
       <c r="E59" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>136.59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>212</v>
       </c>
@@ -2760,8 +2949,11 @@
       <c r="E60" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>7.6340000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>213</v>
       </c>
@@ -2777,8 +2969,11 @@
       <c r="E61" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>12.266999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>215</v>
       </c>
@@ -2794,8 +2989,11 @@
       <c r="E62" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>20.074999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>218</v>
       </c>
@@ -2811,8 +3009,11 @@
       <c r="E63" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>13.695</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>219</v>
       </c>
@@ -2828,8 +3029,11 @@
       <c r="E64" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>450</v>
       </c>
@@ -2845,8 +3049,11 @@
       <c r="E65" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>7.9039999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>251</v>
       </c>
@@ -2862,8 +3069,11 @@
       <c r="E66" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>4.3959999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>252</v>
       </c>
@@ -2879,8 +3089,11 @@
       <c r="E67" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>18.247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>253</v>
       </c>
@@ -2896,8 +3109,11 @@
       <c r="E68" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>7.2759999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>254</v>
       </c>
@@ -2913,8 +3129,11 @@
       <c r="E69" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>12.555999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>275</v>
       </c>
@@ -2930,8 +3149,11 @@
       <c r="E70" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>9.4290000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>278</v>
       </c>
@@ -2947,8 +3169,11 @@
       <c r="E71" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>49.606999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>279</v>
       </c>
@@ -2964,8 +3189,11 @@
       <c r="E72" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>21.779</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>280</v>
       </c>
@@ -2981,8 +3209,11 @@
       <c r="E73" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>11.359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>284</v>
       </c>
@@ -2998,8 +3229,11 @@
       <c r="E74" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>23.608000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>286</v>
       </c>
@@ -3015,8 +3249,11 @@
       <c r="E75" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>289</v>
       </c>
@@ -3032,8 +3269,11 @@
       <c r="E76" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>24.684000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>290</v>
       </c>
@@ -3049,8 +3289,11 @@
       <c r="E77" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>21.478999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>292</v>
       </c>
@@ -3066,8 +3309,11 @@
       <c r="E78" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>25.686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>293</v>
       </c>
@@ -3083,8 +3329,11 @@
       <c r="E79" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>5.4340000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>294</v>
       </c>
@@ -3100,8 +3349,11 @@
       <c r="E80" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>20.942</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>295</v>
       </c>
@@ -3117,8 +3369,11 @@
       <c r="E81" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>7.8719999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>460</v>
       </c>
@@ -3134,8 +3389,11 @@
       <c r="E82" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>29.687999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>299</v>
       </c>
@@ -3151,8 +3409,11 @@
       <c r="E83" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>3.0110000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>302</v>
       </c>
@@ -3168,8 +3429,11 @@
       <c r="E84" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>30.911000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>303</v>
       </c>
@@ -3185,8 +3449,11 @@
       <c r="E85" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>304</v>
       </c>
@@ -3202,8 +3469,11 @@
       <c r="E86" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>8.6620000000000008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>305</v>
       </c>
@@ -3219,8 +3489,11 @@
       <c r="E87" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>29.390999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>306</v>
       </c>
@@ -3236,8 +3509,11 @@
       <c r="E88" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>311</v>
       </c>
@@ -3253,8 +3529,11 @@
       <c r="E89" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>3.5019999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>312</v>
       </c>
@@ -3270,8 +3549,11 @@
       <c r="E90" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>10.561999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>482</v>
       </c>
@@ -3287,8 +3569,11 @@
       <c r="E91" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>11.353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>487</v>
       </c>
@@ -3304,8 +3589,11 @@
       <c r="E92" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>84.132999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>494</v>
       </c>
@@ -3321,8 +3609,11 @@
       <c r="E93" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>54.936999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>513</v>
       </c>
@@ -3338,8 +3629,11 @@
       <c r="E94" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>6.9080000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>519</v>
       </c>
@@ -3355,8 +3649,11 @@
       <c r="E95" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>50.210999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>524</v>
       </c>
@@ -3372,8 +3669,11 @@
       <c r="E96" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>19.928999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>532</v>
       </c>
@@ -3389,8 +3689,11 @@
       <c r="E97" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>176.785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>533</v>
       </c>
@@ -3406,8 +3709,11 @@
       <c r="E98" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>9.3019999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>534</v>
       </c>
@@ -3423,8 +3729,11 @@
       <c r="E99" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>52.941000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>537</v>
       </c>
@@ -3440,8 +3749,11 @@
       <c r="E100" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>17.702000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>574</v>
       </c>
@@ -3457,8 +3769,11 @@
       <c r="E101" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>161.422</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>576</v>
       </c>
@@ -3474,8 +3789,11 @@
       <c r="E102" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <v>38.552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>577</v>
       </c>
@@ -3491,8 +3809,11 @@
       <c r="E103" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>28.026</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>584</v>
       </c>
@@ -3508,8 +3829,11 @@
       <c r="E104" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <v>47.225000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>585</v>
       </c>
@@ -3525,8 +3849,11 @@
       <c r="E105" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <v>9.5830000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>589</v>
       </c>
@@ -3542,8 +3869,11 @@
       <c r="E106" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>15.753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>591</v>
       </c>
@@ -3559,8 +3889,11 @@
       <c r="E107" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <v>116.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>592</v>
       </c>
@@ -3576,8 +3909,11 @@
       <c r="E108" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>8.7859999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>594</v>
       </c>
@@ -3593,8 +3929,11 @@
       <c r="E109" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <v>43.904000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>598</v>
       </c>
@@ -3610,8 +3949,11 @@
       <c r="E110" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <v>30.111999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>599</v>
       </c>
@@ -3627,8 +3969,11 @@
       <c r="E111" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <v>46.95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>614</v>
       </c>
@@ -3644,8 +3989,11 @@
       <c r="E112" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <v>184.58099999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>655</v>
       </c>
@@ -3661,8 +4009,11 @@
       <c r="E113" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <v>96.046000000000006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>657</v>
       </c>
@@ -3678,8 +4029,11 @@
       <c r="E114" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <v>8.766</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>661</v>
       </c>
@@ -3695,8 +4049,11 @@
       <c r="E115" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <v>14.893000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>663</v>
       </c>
@@ -3712,8 +4069,11 @@
       <c r="E116" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <v>11.747</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>674</v>
       </c>
@@ -3729,8 +4089,11 @@
       <c r="E117" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <v>19.658999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>679</v>
       </c>
@@ -3746,8 +4109,11 @@
       <c r="E118" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <v>26.283000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>680</v>
       </c>
@@ -3763,8 +4129,11 @@
       <c r="E119" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>50.554000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>682</v>
       </c>
@@ -3780,8 +4149,11 @@
       <c r="E120" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <v>8.702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>684</v>
       </c>
@@ -3797,8 +4169,11 @@
       <c r="E121" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <v>11.057</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>690</v>
       </c>
@@ -3814,8 +4189,11 @@
       <c r="E122" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <v>47.969000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>691</v>
       </c>
@@ -3831,8 +4209,11 @@
       <c r="E123" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <v>27.108000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>693</v>
       </c>
@@ -3848,8 +4229,11 @@
       <c r="E124" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <v>22.780999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>694</v>
       </c>
@@ -3865,8 +4249,11 @@
       <c r="E125" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <v>93.923000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>699</v>
       </c>
@@ -3882,8 +4269,11 @@
       <c r="E126" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <v>9.9390000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>702</v>
       </c>
@@ -3899,8 +4289,11 @@
       <c r="E127" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>705</v>
       </c>
@@ -3916,8 +4309,11 @@
       <c r="E128" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <v>3.5019999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>706</v>
       </c>
@@ -3933,8 +4329,11 @@
       <c r="E129" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <v>204.68899999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>718</v>
       </c>
@@ -3950,8 +4349,11 @@
       <c r="E130" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130">
+        <v>11.090999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>719</v>
       </c>
@@ -3967,8 +4369,11 @@
       <c r="E131" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>720</v>
       </c>
@@ -3984,8 +4389,11 @@
       <c r="E132" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <v>18.951000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>722</v>
       </c>
@@ -4001,8 +4409,11 @@
       <c r="E133" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133">
+        <v>120.48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>736</v>
       </c>
@@ -4018,8 +4429,11 @@
       <c r="E134" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <v>18.350000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>737</v>
       </c>
@@ -4035,8 +4449,11 @@
       <c r="E135" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <v>11.898999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>740</v>
       </c>
@@ -4052,8 +4469,11 @@
       <c r="E136" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <v>5.5679999999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>741</v>
       </c>
@@ -4069,8 +4489,11 @@
       <c r="E137" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <v>13.677</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>744</v>
       </c>
@@ -4086,8 +4509,11 @@
       <c r="E138" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <v>5.5309999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>745</v>
       </c>
@@ -4103,8 +4529,11 @@
       <c r="E139" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <v>8.5630000000000006</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>754</v>
       </c>
@@ -4120,8 +4549,11 @@
       <c r="E140" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <v>60.308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>755</v>
       </c>
@@ -4137,8 +4569,11 @@
       <c r="E141" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>756</v>
       </c>
@@ -4154,8 +4589,11 @@
       <c r="E142" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <v>31.28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>764</v>
       </c>
@@ -4171,8 +4609,11 @@
       <c r="E143" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <v>23.803000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>765</v>
       </c>
@@ -4188,8 +4629,11 @@
       <c r="E144" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144">
+        <v>34.741</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>767</v>
       </c>
@@ -4205,8 +4649,11 @@
       <c r="E145" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145">
+        <v>12.411</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>768</v>
       </c>
@@ -4222,8 +4669,11 @@
       <c r="E146" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <v>32.149000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>781</v>
       </c>
@@ -4239,8 +4689,11 @@
       <c r="E147" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <v>19.286000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>782</v>
       </c>
@@ -4256,8 +4709,11 @@
       <c r="E148" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>27.271999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>783</v>
       </c>
@@ -4273,8 +4729,11 @@
       <c r="E149" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <v>2.8370000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>785</v>
       </c>
@@ -4290,8 +4749,11 @@
       <c r="E150" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150">
+        <v>149.09899999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>788</v>
       </c>
@@ -4307,8 +4769,11 @@
       <c r="E151" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151">
+        <v>181.35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>796</v>
       </c>
@@ -4324,8 +4789,11 @@
       <c r="E152" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152">
+        <v>101.063</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>800</v>
       </c>
@@ -4341,8 +4809,11 @@
       <c r="E153" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>804</v>
       </c>
@@ -4358,8 +4829,11 @@
       <c r="E154" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154">
+        <v>64.997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>805</v>
       </c>
@@ -4375,8 +4849,11 @@
       <c r="E155" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>807</v>
       </c>
@@ -4392,8 +4869,11 @@
       <c r="E156" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156">
+        <v>153.42400000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>809</v>
       </c>
@@ -4409,8 +4889,11 @@
       <c r="E157" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>811</v>
       </c>
@@ -4425,6 +4908,9 @@
       </c>
       <c r="E158" t="s">
         <v>447</v>
+      </c>
+      <c r="F158">
+        <v>29.591999999999999</v>
       </c>
     </row>
   </sheetData>
